--- a/data/Excel Workbooks/Calvin2011/UnitedStatesDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/UnitedStatesDataWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="320" windowWidth="21840" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="320" windowWidth="25080" windowHeight="17240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="United States Workbook" sheetId="1" r:id="rId1"/>
@@ -3898,7 +3898,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3913,7 +3913,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5765,19 +5765,19 @@
                   <c:v>1.415492804660667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.425323898960915</c:v>
+                  <c:v>1.425242380766054</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.409938698317464</c:v>
+                  <c:v>1.410036520151298</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.332317073170732</c:v>
+                  <c:v>1.332083387678796</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.331762749445676</c:v>
+                  <c:v>1.332143167688361</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.374182100778227</c:v>
+                  <c:v>1.35219664362419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6458,11 +6458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2105878232"/>
-        <c:axId val="-2106139864"/>
+        <c:axId val="-2140878808"/>
+        <c:axId val="-2140869752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2105878232"/>
+        <c:axId val="-2140878808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015.0"/>
@@ -6486,6 +6486,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6502,12 +6503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106139864"/>
+        <c:crossAx val="-2140869752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106139864"/>
+        <c:axId val="-2140869752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -6555,7 +6556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105878232"/>
+        <c:crossAx val="-2140878808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -7498,11 +7499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2109529304"/>
-        <c:axId val="-2108838920"/>
+        <c:axId val="-2142098360"/>
+        <c:axId val="-2142106344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2109529304"/>
+        <c:axId val="-2142098360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -7532,13 +7533,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108838920"/>
+        <c:crossAx val="-2142106344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108838920"/>
+        <c:axId val="-2142106344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7566,7 +7567,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109529304"/>
+        <c:crossAx val="-2142098360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8619,11 +8620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111766632"/>
-        <c:axId val="-2111313320"/>
+        <c:axId val="-2142156216"/>
+        <c:axId val="-2142164472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111766632"/>
+        <c:axId val="-2142156216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -8658,13 +8659,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111313320"/>
+        <c:crossAx val="-2142164472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111313320"/>
+        <c:axId val="-2142164472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8697,7 +8698,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111766632"/>
+        <c:crossAx val="-2142156216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9177,19 +9178,19 @@
                   <c:v>2.205033831751808</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.262037969408342</c:v>
+                  <c:v>2.2619480438487</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.282213856278766</c:v>
+                  <c:v>2.282325378295978</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.21664188203261</c:v>
+                  <c:v>2.216370879815586</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.254399401970504</c:v>
+                  <c:v>2.254764438247422</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.33016034735702</c:v>
+                  <c:v>2.306846004392488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9400,25 +9401,25 @@
                   <c:v>2.06451545831298</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.132544666810864</c:v>
+                  <c:v>2.132544666810865</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2.20583362190458</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.26376053885513</c:v>
+                  <c:v>2.263673923348369</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.283296031739696</c:v>
+                  <c:v>2.2834046957126</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.21807873015524</c:v>
+                  <c:v>2.217816531746471</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.263628780732646</c:v>
+                  <c:v>2.26393677046936</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.334956215313799</c:v>
+                  <c:v>2.314051791636629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9629,11 +9630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111245192"/>
-        <c:axId val="-2111242056"/>
+        <c:axId val="-2142237208"/>
+        <c:axId val="-2142240344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111245192"/>
+        <c:axId val="-2142237208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9643,12 +9644,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111242056"/>
+        <c:crossAx val="-2142240344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111242056"/>
+        <c:axId val="-2142240344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9659,7 +9660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111245192"/>
+        <c:crossAx val="-2142237208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9684,7 +9685,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9717,7 +9718,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5820833"/>
+    <xdr:ext cx="8565745" cy="5818582"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12337,7 +12338,7 @@
       </c>
       <c r="D33" s="117">
         <f>'Labour calculations'!D29</f>
-        <v>249114</v>
+        <v>249114.00000000003</v>
       </c>
       <c r="E33" s="11">
         <f>'Exergy calcs'!AO54</f>
@@ -12362,7 +12363,7 @@
       </c>
       <c r="K33" s="15">
         <f t="shared" si="3"/>
-        <v>1.353821572975088</v>
+        <v>1.3538215729750882</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="5"/>
@@ -12451,7 +12452,7 @@
       </c>
       <c r="D35" s="117">
         <f>'Labour calculations'!D31</f>
-        <v>255787</v>
+        <v>255787.00000000003</v>
       </c>
       <c r="E35" s="11">
         <f>'Exergy calcs'!AO56</f>
@@ -12476,7 +12477,7 @@
       </c>
       <c r="K35" s="15">
         <f t="shared" si="3"/>
-        <v>1.3900863005956263</v>
+        <v>1.3900863005956265</v>
       </c>
       <c r="L35" s="15">
         <f t="shared" si="5"/>
@@ -12565,7 +12566,7 @@
       </c>
       <c r="D37" s="117">
         <f>'Labour calculations'!D33</f>
-        <v>262271</v>
+        <v>262256</v>
       </c>
       <c r="E37" s="11">
         <f>'Exergy calcs'!AO58</f>
@@ -12590,7 +12591,7 @@
       </c>
       <c r="K37" s="15">
         <f t="shared" si="3"/>
-        <v>1.4253238989609147</v>
+        <v>1.4252423807660537</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="5"/>
@@ -12622,7 +12623,7 @@
       </c>
       <c r="D38" s="117">
         <f>'Labour calculations'!D34</f>
-        <v>259440</v>
+        <v>259458.00000000003</v>
       </c>
       <c r="E38" s="11">
         <f>'Exergy calcs'!AO59</f>
@@ -12647,7 +12648,7 @@
       </c>
       <c r="K38" s="15">
         <f t="shared" si="3"/>
-        <v>1.4099386983174644</v>
+        <v>1.4100365201512979</v>
       </c>
       <c r="L38" s="15">
         <f t="shared" si="5"/>
@@ -12679,7 +12680,7 @@
       </c>
       <c r="D39" s="117">
         <f>'Labour calculations'!D35</f>
-        <v>245157</v>
+        <v>245114</v>
       </c>
       <c r="E39" s="11">
         <f>'Exergy calcs'!AO60</f>
@@ -12704,7 +12705,7 @@
       </c>
       <c r="K39" s="15">
         <f t="shared" si="3"/>
-        <v>1.3323170731707317</v>
+        <v>1.3320833876787965</v>
       </c>
       <c r="L39" s="15">
         <f t="shared" si="5"/>
@@ -12736,7 +12737,7 @@
       </c>
       <c r="D40" s="117">
         <f>'Labour calculations'!D36</f>
-        <v>245055</v>
+        <v>245125</v>
       </c>
       <c r="E40" s="11">
         <f>'Exergy calcs'!AO61</f>
@@ -12761,7 +12762,7 @@
       </c>
       <c r="K40" s="15">
         <f t="shared" si="3"/>
-        <v>1.3317627494456763</v>
+        <v>1.3321431676883613</v>
       </c>
       <c r="L40" s="15">
         <f t="shared" si="5"/>
@@ -12793,7 +12794,7 @@
       </c>
       <c r="D41" s="117">
         <f>'Labour calculations'!D37</f>
-        <v>252860.5</v>
+        <v>248815</v>
       </c>
       <c r="E41" s="11">
         <f>'Exergy calcs'!AO62</f>
@@ -12818,7 +12819,7 @@
       </c>
       <c r="K41" s="15">
         <f t="shared" si="3"/>
-        <v>1.3741821007782271</v>
+        <v>1.3521966436241903</v>
       </c>
       <c r="L41" s="15">
         <f t="shared" si="5"/>
@@ -12908,12 +12909,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K8:K9"/>
@@ -12926,6 +12921,12 @@
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -12941,7 +12942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -13927,7 +13928,7 @@
       </c>
       <c r="E25" s="114">
         <f>'United States Workbook'!K33</f>
-        <v>1.353821572975088</v>
+        <v>1.3538215729750882</v>
       </c>
       <c r="F25" s="114">
         <f>'United States Workbook'!L33</f>
@@ -14007,7 +14008,7 @@
       </c>
       <c r="E27" s="114">
         <f>'United States Workbook'!K35</f>
-        <v>1.3900863005956263</v>
+        <v>1.3900863005956265</v>
       </c>
       <c r="F27" s="114">
         <f>'United States Workbook'!L35</f>
@@ -14087,7 +14088,7 @@
       </c>
       <c r="E29" s="114">
         <f>'United States Workbook'!K37</f>
-        <v>1.4253238989609147</v>
+        <v>1.4252423807660537</v>
       </c>
       <c r="F29" s="114">
         <f>'United States Workbook'!L37</f>
@@ -14127,7 +14128,7 @@
       </c>
       <c r="E30" s="114">
         <f>'United States Workbook'!K38</f>
-        <v>1.4099386983174644</v>
+        <v>1.4100365201512979</v>
       </c>
       <c r="F30" s="114">
         <f>'United States Workbook'!L38</f>
@@ -14167,7 +14168,7 @@
       </c>
       <c r="E31" s="114">
         <f>'United States Workbook'!K39</f>
-        <v>1.3323170731707317</v>
+        <v>1.3320833876787965</v>
       </c>
       <c r="F31" s="114">
         <f>'United States Workbook'!L39</f>
@@ -14207,7 +14208,7 @@
       </c>
       <c r="E32" s="114">
         <f>'United States Workbook'!K40</f>
-        <v>1.3317627494456763</v>
+        <v>1.3321431676883613</v>
       </c>
       <c r="F32" s="114">
         <f>'United States Workbook'!L40</f>
@@ -14247,7 +14248,7 @@
       </c>
       <c r="E33" s="114">
         <f>'United States Workbook'!K41</f>
-        <v>1.3741821007782271</v>
+        <v>1.3521966436241903</v>
       </c>
       <c r="F33" s="114">
         <f>'United States Workbook'!L41</f>
@@ -14282,8 +14283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14668,10 +14669,10 @@
         <v>2001</v>
       </c>
       <c r="B27" s="37">
-        <v>1833.1291851848343</v>
+        <v>1833.1205078586104</v>
       </c>
       <c r="C27" s="38">
-        <v>138.40486641666666</v>
+        <v>138.40552157500008</v>
       </c>
       <c r="D27" s="39">
         <f t="shared" si="0"/>
@@ -14684,10 +14685,10 @@
         <v>2002</v>
       </c>
       <c r="B28" s="37">
-        <v>1814.0539379406916</v>
+        <v>1814.0382029812019</v>
       </c>
       <c r="C28" s="38">
-        <v>138.03999691666661</v>
+        <v>138.04119427500001</v>
       </c>
       <c r="D28" s="39">
         <f t="shared" si="0"/>
@@ -14700,14 +14701,14 @@
         <v>2003</v>
       </c>
       <c r="B29" s="37">
-        <v>1786.8860664418289</v>
+        <v>1786.8637703282936</v>
       </c>
       <c r="C29" s="38">
-        <v>139.41235799999998</v>
+        <v>139.41409755833331</v>
       </c>
       <c r="D29" s="39">
         <f t="shared" si="0"/>
-        <v>249114</v>
+        <v>249114.00000000003</v>
       </c>
       <c r="E29" s="12"/>
     </row>
@@ -14716,10 +14717,10 @@
         <v>2004</v>
       </c>
       <c r="B30" s="37">
-        <v>1787.4370386048117</v>
+        <v>1787.4081000400467</v>
       </c>
       <c r="C30" s="38">
-        <v>140.93419491666668</v>
+        <v>140.93647667499994</v>
       </c>
       <c r="D30" s="39">
         <f t="shared" si="0"/>
@@ -14732,14 +14733,14 @@
         <v>2005</v>
       </c>
       <c r="B31" s="37">
-        <v>1784.072030796048</v>
+        <v>1784.0368912593092</v>
       </c>
       <c r="C31" s="38">
-        <v>143.37257441666665</v>
+        <v>143.375398375</v>
       </c>
       <c r="D31" s="39">
         <f t="shared" si="0"/>
-        <v>255787</v>
+        <v>255787.00000000003</v>
       </c>
       <c r="E31" s="12"/>
     </row>
@@ -14748,10 +14749,10 @@
         <v>2006</v>
       </c>
       <c r="B32" s="37">
-        <v>1783.8158186710561</v>
+        <v>1783.7746961076691</v>
       </c>
       <c r="C32" s="38">
-        <v>146.01395349999999</v>
+        <v>146.01731965833338</v>
       </c>
       <c r="D32" s="39">
         <f t="shared" si="0"/>
@@ -14764,14 +14765,14 @@
         <v>2007</v>
       </c>
       <c r="B33" s="37">
-        <v>1776.6291648040701</v>
+        <v>1776.4805216398893</v>
       </c>
       <c r="C33" s="38">
-        <v>147.62281583333331</v>
+        <v>147.62672419166663</v>
       </c>
       <c r="D33" s="39">
         <f t="shared" si="0"/>
-        <v>262271</v>
+        <v>262256</v>
       </c>
       <c r="E33" s="12"/>
     </row>
@@ -14780,14 +14781,14 @@
         <v>2008</v>
       </c>
       <c r="B34" s="37">
-        <v>1765.3712958596552</v>
+        <v>1765.4403130375579</v>
       </c>
       <c r="C34" s="38">
-        <v>146.96058591666664</v>
+        <v>146.96503647499995</v>
       </c>
       <c r="D34" s="39">
         <f t="shared" si="0"/>
-        <v>259440</v>
+        <v>259458.00000000003</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -14796,14 +14797,14 @@
         <v>2009</v>
       </c>
       <c r="B35" s="37">
-        <v>1732.253458903516</v>
+        <v>1731.8885273588874</v>
       </c>
       <c r="C35" s="38">
-        <v>141.52490141666669</v>
+        <v>141.52989417500004</v>
       </c>
       <c r="D35" s="39">
         <f t="shared" si="0"/>
-        <v>245157</v>
+        <v>245114</v>
       </c>
       <c r="E35" s="12"/>
     </row>
@@ -14812,14 +14813,14 @@
         <v>2010</v>
       </c>
       <c r="B36" s="37">
-        <v>1741.4186674978882</v>
+        <v>1742.003300345146</v>
       </c>
       <c r="C36" s="38">
-        <v>140.72147299999997</v>
+        <v>140.71442915833339</v>
       </c>
       <c r="D36" s="39">
         <f t="shared" si="0"/>
-        <v>245055</v>
+        <v>245125</v>
       </c>
       <c r="E36" s="12"/>
     </row>
@@ -14828,14 +14829,14 @@
         <v>2011</v>
       </c>
       <c r="B37" s="37">
-        <v>1787</v>
+        <v>1758.3942838424989</v>
       </c>
       <c r="C37" s="38">
-        <v>141.5</v>
+        <v>141.50125616666676</v>
       </c>
       <c r="D37" s="39">
         <f t="shared" si="0"/>
-        <v>252860.5</v>
+        <v>248815</v>
       </c>
       <c r="E37" s="12"/>
     </row>
@@ -15675,7 +15676,7 @@
       <c r="P30" s="147"/>
       <c r="Q30" s="147"/>
       <c r="R30" s="147"/>
-      <c r="S30" s="154"/>
+      <c r="S30" s="149"/>
       <c r="T30" s="151"/>
       <c r="U30" s="153"/>
       <c r="V30" s="147"/>
@@ -15686,7 +15687,7 @@
       <c r="AA30" s="147"/>
       <c r="AB30" s="147"/>
       <c r="AC30" s="147"/>
-      <c r="AD30" s="149"/>
+      <c r="AD30" s="154"/>
       <c r="AE30" s="151"/>
       <c r="AF30" s="153"/>
       <c r="AG30" s="147"/>
@@ -15697,7 +15698,7 @@
       <c r="AL30" s="147"/>
       <c r="AM30" s="147"/>
       <c r="AN30" s="147"/>
-      <c r="AO30" s="149"/>
+      <c r="AO30" s="154"/>
       <c r="AQ30" s="91"/>
     </row>
     <row r="31" spans="1:43">
@@ -21033,11 +21034,26 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
@@ -21054,26 +21070,11 @@
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -32672,7 +32673,7 @@
       </c>
       <c r="D25" s="101">
         <f>USData!E25</f>
-        <v>1.353821572975088</v>
+        <v>1.3538215729750882</v>
       </c>
       <c r="E25" s="101">
         <f>USData!D25</f>
@@ -32700,11 +32701,11 @@
       </c>
       <c r="O25" s="101">
         <f t="shared" si="2"/>
-        <v>1.9972917768058769</v>
+        <v>1.9972917768058771</v>
       </c>
       <c r="P25" s="101">
         <f t="shared" si="6"/>
-        <v>1.9996075468074719</v>
+        <v>1.9996075468074721</v>
       </c>
       <c r="Q25" s="101">
         <f t="shared" si="7"/>
@@ -32782,7 +32783,7 @@
       </c>
       <c r="D27" s="101">
         <f>USData!E27</f>
-        <v>1.3900863005956263</v>
+        <v>1.3900863005956265</v>
       </c>
       <c r="E27" s="101">
         <f>USData!D27</f>
@@ -32810,15 +32811,15 @@
       </c>
       <c r="O27" s="101">
         <f t="shared" si="2"/>
-        <v>2.1283216373394844</v>
+        <v>2.1283216373394849</v>
       </c>
       <c r="P27" s="101">
         <f t="shared" si="6"/>
-        <v>2.1305853478179024</v>
+        <v>2.1305853478179029</v>
       </c>
       <c r="Q27" s="101">
         <f t="shared" si="7"/>
-        <v>2.1325446668108641</v>
+        <v>2.1325446668108645</v>
       </c>
       <c r="R27" s="101"/>
     </row>
@@ -32892,7 +32893,7 @@
       </c>
       <c r="D29" s="101">
         <f>USData!E29</f>
-        <v>1.4253238989609147</v>
+        <v>1.4252423807660537</v>
       </c>
       <c r="E29" s="101">
         <f>USData!D29</f>
@@ -32920,15 +32921,15 @@
       </c>
       <c r="O29" s="101">
         <f t="shared" si="2"/>
-        <v>2.2600276513888584</v>
+        <v>2.2599338099272752</v>
       </c>
       <c r="P29" s="101">
         <f t="shared" si="6"/>
-        <v>2.2620379694083419</v>
+        <v>2.2619480438487001</v>
       </c>
       <c r="Q29" s="101">
         <f t="shared" si="7"/>
-        <v>2.2637605388551303</v>
+        <v>2.2636739233483691</v>
       </c>
       <c r="R29" s="101"/>
     </row>
@@ -32947,7 +32948,7 @@
       </c>
       <c r="D30" s="101">
         <f>USData!E30</f>
-        <v>1.4099386983174644</v>
+        <v>1.4100365201512979</v>
       </c>
       <c r="E30" s="101">
         <f>USData!D30</f>
@@ -32975,15 +32976,15 @@
       </c>
       <c r="O30" s="101">
         <f t="shared" si="2"/>
-        <v>2.280916357906436</v>
+        <v>2.281031246634678</v>
       </c>
       <c r="P30" s="101">
         <f t="shared" si="6"/>
-        <v>2.2822138562787662</v>
+        <v>2.2823253782959787</v>
       </c>
       <c r="Q30" s="101">
         <f t="shared" si="7"/>
-        <v>2.2832960317396962</v>
+        <v>2.2834046957126</v>
       </c>
       <c r="R30" s="101"/>
     </row>
@@ -33002,7 +33003,7 @@
       </c>
       <c r="D31" s="101">
         <f>USData!E31</f>
-        <v>1.3323170731707317</v>
+        <v>1.3320833876787965</v>
       </c>
       <c r="E31" s="101">
         <f>USData!D31</f>
@@ -33030,15 +33031,15 @@
       </c>
       <c r="O31" s="101">
         <f t="shared" si="2"/>
-        <v>2.2148252234317427</v>
+        <v>2.2145431834516218</v>
       </c>
       <c r="P31" s="101">
         <f t="shared" si="6"/>
-        <v>2.2166418820326097</v>
+        <v>2.2163708798155861</v>
       </c>
       <c r="Q31" s="101">
         <f t="shared" si="7"/>
-        <v>2.2180787301552396</v>
+        <v>2.2178165317464709</v>
       </c>
       <c r="R31" s="101"/>
     </row>
@@ -33057,7 +33058,7 @@
       </c>
       <c r="D32" s="101">
         <f>USData!E32</f>
-        <v>1.3317627494456763</v>
+        <v>1.3321431676883613</v>
       </c>
       <c r="E32" s="101">
         <f>USData!D32</f>
@@ -33085,15 +33086,15 @@
       </c>
       <c r="O32" s="101">
         <f t="shared" si="2"/>
-        <v>2.2411706361689756</v>
+        <v>2.2416353964678675</v>
       </c>
       <c r="P32" s="101">
         <f t="shared" si="6"/>
-        <v>2.2543994019705043</v>
+        <v>2.2547644382474226</v>
       </c>
       <c r="Q32" s="101">
         <f t="shared" si="7"/>
-        <v>2.2636287807326458</v>
+        <v>2.2639367704693605</v>
       </c>
       <c r="R32" s="101"/>
     </row>
@@ -33112,7 +33113,7 @@
       </c>
       <c r="D33" s="101">
         <f>USData!E33</f>
-        <v>1.3741821007782271</v>
+        <v>1.3521966436241903</v>
       </c>
       <c r="E33" s="101">
         <f>USData!D33</f>
@@ -33140,15 +33141,15 @@
       </c>
       <c r="O33" s="101">
         <f t="shared" si="2"/>
-        <v>2.3237011284659856</v>
+        <v>2.2966512396662986</v>
       </c>
       <c r="P33" s="101">
         <f t="shared" si="6"/>
-        <v>2.3301603473570198</v>
+        <v>2.3068460043924883</v>
       </c>
       <c r="Q33" s="101">
         <f t="shared" si="7"/>
-        <v>2.3349562153137993</v>
+        <v>2.3140517916366292</v>
       </c>
       <c r="R33" s="101"/>
     </row>
